--- a/data/trans_bre/P16-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,47%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,46; 23,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,02; 27,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,95; 27,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 23,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,6; 132,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,16; 117,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,09; 148,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 132,68</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>117,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,01; 28,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,16; 31,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 20,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,64; 22,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>81,97; 156,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,28; 105,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,03; 69,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 81,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,14%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,83; 22,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,49; 29,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,62; 20,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 16,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,51; 93,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,73; 84,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,81; 58,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,04; 47,51</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,58; 23,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,69; 27,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 14,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,8; 24,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,56; 64,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,89; 61,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 30,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,98; 65,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,36</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 8,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 13,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 20,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 9,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 12,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,77; 19,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,04; 33,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 13,66</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,57; 12,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 6,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 9,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 12,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,24; 15,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 7,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 11,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,43; 15,42</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,96%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 20,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 22,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,6; 17,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,54; 17,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,26; 52,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,54; 44,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,46; 35,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,67; 34,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,27</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>50,13%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 23,61</t>
+          <t>2,89; 23,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 132,68</t>
+          <t>9,05; 124,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,83</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>56,78%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 22,45</t>
+          <t>8,68; 38,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 81,41</t>
+          <t>23,04; 129,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>28,28%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,79</t>
+          <t>5,43; 16,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,04; 47,51</t>
+          <t>12,65; 45,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>59,91%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 24,56</t>
+          <t>5,88; 44,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,98; 65,81</t>
+          <t>11,16; 238,31</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 9,26</t>
+          <t>-0,21; 8,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 13,66</t>
+          <t>-0,33; 12,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>14,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 12,17</t>
+          <t>5,29; 17,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,98</t>
+          <t>-1,15; 7,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 9,93</t>
+          <t>2,69; 12,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 12,27</t>
+          <t>5,18; 22,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 15,06</t>
+          <t>6,51; 23,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,88</t>
+          <t>-1,28; 9,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 11,79</t>
+          <t>3,15; 15,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,42</t>
+          <t>6,73; 30,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,04</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19,81</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,04; 8,97</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 7,18</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 7,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 9,25</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 10,65</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 7,99</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 8,83</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 11,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,04</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19,81</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,06</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16,93</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>44,5%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>15,47; 20,37</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>17,44; 22,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>12,6; 17,39</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>9,54; 17,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 29,85</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>37,26; 52,15</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>33,54; 44,84</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>24,46; 35,6</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 34,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 77,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 23,38</t>
+          <t>12,7; 23,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 27,99</t>
+          <t>14,09; 26,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 27,94</t>
+          <t>14,53; 27,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 23,14</t>
+          <t>1,73; 23,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,6; 132,81</t>
+          <t>52,88; 131,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,16; 117,01</t>
+          <t>45,55; 109,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,09; 148,31</t>
+          <t>56,26; 142,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 124,16</t>
+          <t>4,72; 123,3</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,01; 28,5</t>
+          <t>18,52; 28,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,16; 31,26</t>
+          <t>19,7; 30,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 20,77</t>
+          <t>8,98; 20,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 38,44</t>
+          <t>8,98; 36,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,97; 156,77</t>
+          <t>82,35; 155,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,28; 105,19</t>
+          <t>54,79; 101,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,03; 69,45</t>
+          <t>25,83; 68,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,04; 129,81</t>
+          <t>23,61; 122,25</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 22,92</t>
+          <t>12,41; 22,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,49; 29,34</t>
+          <t>18,18; 28,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,62; 20,07</t>
+          <t>8,87; 21,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,58</t>
+          <t>5,44; 16,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>42,51; 93,41</t>
+          <t>43,71; 93,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,73; 84,96</t>
+          <t>45,13; 85,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,81; 58,19</t>
+          <t>22,14; 63,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 45,72</t>
+          <t>12,36; 47,29</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 23,01</t>
+          <t>10,58; 23,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,69; 27,31</t>
+          <t>16,53; 27,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 14,82</t>
+          <t>3,6; 15,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 44,44</t>
+          <t>5,99; 43,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 64,06</t>
+          <t>24,7; 63,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,89; 61,56</t>
+          <t>32,49; 63,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 30,73</t>
+          <t>6,71; 31,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 238,31</t>
+          <t>11,93; 282,21</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 8,48</t>
+          <t>-4,31; 8,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,65</t>
+          <t>1,91; 13,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 20,11</t>
+          <t>8,3; 20,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,71</t>
+          <t>-0,08; 8,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 12,46</t>
+          <t>-5,53; 11,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 19,0</t>
+          <t>2,47; 19,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,04; 33,11</t>
+          <t>11,86; 33,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 12,68</t>
+          <t>-0,1; 13,33</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 17,13</t>
+          <t>6,0; 17,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 7,91</t>
+          <t>-1,42; 8,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 12,26</t>
+          <t>3,3; 13,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 22,29</t>
+          <t>4,52; 21,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,06</t>
+          <t>7,19; 23,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,26</t>
+          <t>-1,55; 9,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 15,2</t>
+          <t>3,82; 16,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 30,68</t>
+          <t>5,8; 28,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,97</t>
+          <t>-0,98; 9,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,18</t>
+          <t>0,06; 6,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,78</t>
+          <t>0,12; 8,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 9,25</t>
+          <t>1,44; 9,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 10,65</t>
+          <t>-1,08; 11,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,99</t>
+          <t>0,06; 7,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 8,83</t>
+          <t>0,17; 9,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 11,07</t>
+          <t>1,63; 10,96</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,37</t>
+          <t>15,7; 20,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,44; 22,04</t>
+          <t>17,61; 22,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 17,39</t>
+          <t>12,69; 17,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,06; 29,85</t>
+          <t>11,2; 29,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>37,26; 52,15</t>
+          <t>37,43; 52,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>33,54; 44,84</t>
+          <t>33,9; 45,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,46; 35,6</t>
+          <t>24,97; 36,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,85; 77,44</t>
+          <t>21,34; 75,12</t>
         </is>
       </c>
     </row>
